--- a/medicine/Sexualité et sexologie/Bibliographie_sur_la_sexologie/Bibliographie_sur_la_sexologie.xlsx
+++ b/medicine/Sexualité et sexologie/Bibliographie_sur_la_sexologie/Bibliographie_sur_la_sexologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,15 +520,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En français
-Philippe Brenot (dir.), Dictionnaire de la sexualité humaine, Le Bouscat (Gironde, FR), L'Esprit du Temps, 2004
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Philippe Brenot (dir.), Dictionnaire de la sexualité humaine, Le Bouscat (Gironde, FR), L'Esprit du Temps, 2004
 Mansour El Feki (dir.), La sexothérapie, Bruxelles, De Boeck, coll. « Carrefour des Psychothérapies », 2010, 230 p. (ISBN 978-2-8041-0795-6)
 Joseph Josy Levy (dir.) et André Dupras (dir.), Questions de sexualité au Québec, Montréal, Liber, 2008, 503 p. (ISBN 978-2-89578-150-9)
 Clellan Ford et Frank Beach, Le comportement sexuel chez l'homme et l'animal, Paris, Robert Laffont, 1970.
 Albert Allgeier et Élizabeth Allgeier, Sexualité humaine, Bruxelles, De Boeck Université, 1992
-Monique Pelletant et Dr. Raoul Relouzat, Votre sexualité sans complexe, Laval (CA), Anagramme, 2002
-En anglais
-(en) Robert Suggs, Marquesan sexual behavior. An anthropological study of Polynesian pratices, New York, Harcourt Brace &amp; World, 1966
+Monique Pelletant et Dr. Raoul Relouzat, Votre sexualité sans complexe, Laval (CA), Anagramme, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_la_sexologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_la_sexologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ouvrages grand public</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Robert Suggs, Marquesan sexual behavior. An anthropological study of Polynesian pratices, New York, Harcourt Brace &amp; World, 1966
 (en) Bruce Bagemihl, Biological exuberance : animal homosexuality and natural diversity, New York, St Martin Press, 2000</t>
         </is>
       </c>
